--- a/log/clustering_log/clustering4/clustering4 sumary.xlsx
+++ b/log/clustering_log/clustering4/clustering4 sumary.xlsx
@@ -9,14 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11550" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="6比4" sheetId="1" r:id="rId1"/>
     <sheet name="7比3" sheetId="2" r:id="rId2"/>
     <sheet name="8比2" sheetId="3" r:id="rId3"/>
     <sheet name="9比1" sheetId="4" r:id="rId4"/>
+    <sheet name="工作表1" sheetId="5" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="21">
   <si>
     <t>mean</t>
   </si>
@@ -41,21 +45,6 @@
     <t>std</t>
   </si>
   <si>
-    <t>completeness</t>
-  </si>
-  <si>
-    <t>homogeneity</t>
-  </si>
-  <si>
-    <t>mutual_info</t>
-  </si>
-  <si>
-    <t>rand</t>
-  </si>
-  <si>
-    <t>v_measure</t>
-  </si>
-  <si>
     <t>test finished in 23011.24 seconds</t>
   </si>
   <si>
@@ -67,12 +56,54 @@
   <si>
     <t>test finished in 23019.51 seconds</t>
   </si>
+  <si>
+    <t>Completeness</t>
+  </si>
+  <si>
+    <t>Homogeneity</t>
+  </si>
+  <si>
+    <t>V-measure</t>
+  </si>
+  <si>
+    <t>AMI</t>
+  </si>
+  <si>
+    <t>ARI</t>
+  </si>
+  <si>
+    <t>6:4-0.55</t>
+  </si>
+  <si>
+    <t>7:3-0.55</t>
+  </si>
+  <si>
+    <t>8:2-0.55</t>
+  </si>
+  <si>
+    <t>9:1-0.55</t>
+  </si>
+  <si>
+    <t>test finished in 5750.68 seconds</t>
+  </si>
+  <si>
+    <t>誤差線</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>負</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -104,6 +135,14 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -127,7 +166,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -138,6 +177,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -273,19 +315,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>completeness</c:v>
+                  <c:v>Completeness</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>homogeneity</c:v>
+                  <c:v>Homogeneity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mutual_info</c:v>
+                  <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>rand</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>v_measure</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -303,13 +345,13 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.02</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -345,19 +387,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>completeness</c:v>
+                  <c:v>Completeness</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>homogeneity</c:v>
+                  <c:v>Homogeneity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mutual_info</c:v>
+                  <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>rand</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>v_measure</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -375,13 +417,13 @@
                   <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.51</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -417,19 +459,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>completeness</c:v>
+                  <c:v>Completeness</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>homogeneity</c:v>
+                  <c:v>Homogeneity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mutual_info</c:v>
+                  <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>rand</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>v_measure</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -447,13 +489,13 @@
                   <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.82</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -489,19 +531,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>completeness</c:v>
+                  <c:v>Completeness</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>homogeneity</c:v>
+                  <c:v>Homogeneity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mutual_info</c:v>
+                  <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>rand</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>v_measure</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -519,13 +561,13 @@
                   <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.91</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -561,19 +603,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>completeness</c:v>
+                  <c:v>Completeness</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>homogeneity</c:v>
+                  <c:v>Homogeneity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mutual_info</c:v>
+                  <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>rand</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>v_measure</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -591,13 +633,13 @@
                   <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.79</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -635,19 +677,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>completeness</c:v>
+                  <c:v>Completeness</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>homogeneity</c:v>
+                  <c:v>Homogeneity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mutual_info</c:v>
+                  <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>rand</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>v_measure</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -665,13 +707,13 @@
                   <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -709,19 +751,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>completeness</c:v>
+                  <c:v>Completeness</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>homogeneity</c:v>
+                  <c:v>Homogeneity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mutual_info</c:v>
+                  <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>rand</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>v_measure</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -739,13 +781,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.44</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -783,19 +825,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>completeness</c:v>
+                  <c:v>Completeness</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>homogeneity</c:v>
+                  <c:v>Homogeneity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mutual_info</c:v>
+                  <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>rand</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>v_measure</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -813,13 +855,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.33</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -835,8 +877,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1949835872"/>
-        <c:axId val="1949834784"/>
+        <c:axId val="276293616"/>
+        <c:axId val="276289264"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -900,19 +942,19 @@
                     <c:strCache>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>completeness</c:v>
+                        <c:v>Completeness</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>homogeneity</c:v>
+                        <c:v>Homogeneity</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>mutual_info</c:v>
+                        <c:v>V-measure</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>rand</c:v>
+                        <c:v>AMI</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>v_measure</c:v>
+                        <c:v>ARI</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -938,7 +980,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1949835872"/>
+        <c:axId val="276293616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -981,7 +1023,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1949834784"/>
+        <c:crossAx val="276289264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -989,7 +1031,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1949834784"/>
+        <c:axId val="276289264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1097,7 +1139,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1949835872"/>
+        <c:crossAx val="276293616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1294,19 +1336,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>completeness</c:v>
+                  <c:v>Completeness</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>homogeneity</c:v>
+                  <c:v>Homogeneity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mutual_info</c:v>
+                  <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>rand</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>v_measure</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1324,13 +1366,13 @@
                   <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.12</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1366,19 +1408,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>completeness</c:v>
+                  <c:v>Completeness</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>homogeneity</c:v>
+                  <c:v>Homogeneity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mutual_info</c:v>
+                  <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>rand</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>v_measure</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1396,13 +1438,13 @@
                   <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.57999999999999996</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1438,19 +1480,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>completeness</c:v>
+                  <c:v>Completeness</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>homogeneity</c:v>
+                  <c:v>Homogeneity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mutual_info</c:v>
+                  <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>rand</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>v_measure</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1468,13 +1510,13 @@
                   <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.84</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1510,19 +1552,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>completeness</c:v>
+                  <c:v>Completeness</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>homogeneity</c:v>
+                  <c:v>Homogeneity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mutual_info</c:v>
+                  <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>rand</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>v_measure</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1540,13 +1582,13 @@
                   <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.91</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1582,19 +1624,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>completeness</c:v>
+                  <c:v>Completeness</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>homogeneity</c:v>
+                  <c:v>Homogeneity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mutual_info</c:v>
+                  <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>rand</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>v_measure</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1612,13 +1654,13 @@
                   <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.81</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1656,19 +1698,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>completeness</c:v>
+                  <c:v>Completeness</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>homogeneity</c:v>
+                  <c:v>Homogeneity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mutual_info</c:v>
+                  <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>rand</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>v_measure</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1686,13 +1728,13 @@
                   <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.63</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.59</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1730,19 +1772,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>completeness</c:v>
+                  <c:v>Completeness</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>homogeneity</c:v>
+                  <c:v>Homogeneity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mutual_info</c:v>
+                  <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>rand</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>v_measure</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1760,13 +1802,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.47</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1804,19 +1846,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>completeness</c:v>
+                  <c:v>Completeness</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>homogeneity</c:v>
+                  <c:v>Homogeneity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mutual_info</c:v>
+                  <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>rand</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>v_measure</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1834,13 +1876,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.35</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1856,8 +1898,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1949838592"/>
-        <c:axId val="1949835328"/>
+        <c:axId val="276287088"/>
+        <c:axId val="276294160"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1921,19 +1963,19 @@
                     <c:strCache>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>completeness</c:v>
+                        <c:v>Completeness</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>homogeneity</c:v>
+                        <c:v>Homogeneity</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>mutual_info</c:v>
+                        <c:v>V-measure</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>rand</c:v>
+                        <c:v>AMI</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>v_measure</c:v>
+                        <c:v>ARI</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1959,7 +2001,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1949838592"/>
+        <c:axId val="276287088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2002,7 +2044,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1949835328"/>
+        <c:crossAx val="276294160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2010,7 +2052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1949835328"/>
+        <c:axId val="276294160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2118,7 +2160,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1949838592"/>
+        <c:crossAx val="276287088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2315,19 +2357,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>completeness</c:v>
+                  <c:v>Completeness</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>homogeneity</c:v>
+                  <c:v>Homogeneity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mutual_info</c:v>
+                  <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>rand</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>v_measure</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2345,13 +2387,13 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2387,19 +2429,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>completeness</c:v>
+                  <c:v>Completeness</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>homogeneity</c:v>
+                  <c:v>Homogeneity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mutual_info</c:v>
+                  <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>rand</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>v_measure</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2417,13 +2459,13 @@
                   <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.63</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2459,19 +2501,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>completeness</c:v>
+                  <c:v>Completeness</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>homogeneity</c:v>
+                  <c:v>Homogeneity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mutual_info</c:v>
+                  <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>rand</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>v_measure</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2489,13 +2531,13 @@
                   <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.85</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2531,19 +2573,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>completeness</c:v>
+                  <c:v>Completeness</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>homogeneity</c:v>
+                  <c:v>Homogeneity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mutual_info</c:v>
+                  <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>rand</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>v_measure</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2561,13 +2603,13 @@
                   <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2603,19 +2645,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>completeness</c:v>
+                  <c:v>Completeness</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>homogeneity</c:v>
+                  <c:v>Homogeneity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mutual_info</c:v>
+                  <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>rand</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>v_measure</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2633,13 +2675,13 @@
                   <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.81</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2677,19 +2719,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>completeness</c:v>
+                  <c:v>Completeness</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>homogeneity</c:v>
+                  <c:v>Homogeneity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mutual_info</c:v>
+                  <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>rand</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>v_measure</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2707,13 +2749,13 @@
                   <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.65</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2751,19 +2793,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>completeness</c:v>
+                  <c:v>Completeness</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>homogeneity</c:v>
+                  <c:v>Homogeneity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mutual_info</c:v>
+                  <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>rand</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>v_measure</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2781,13 +2823,13 @@
                   <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2825,19 +2867,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>completeness</c:v>
+                  <c:v>Completeness</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>homogeneity</c:v>
+                  <c:v>Homogeneity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mutual_info</c:v>
+                  <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>rand</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>v_measure</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2855,13 +2897,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.39</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2877,8 +2919,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1949836960"/>
-        <c:axId val="1949829888"/>
+        <c:axId val="1935090896"/>
+        <c:axId val="1935095792"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2942,19 +2984,19 @@
                     <c:strCache>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>completeness</c:v>
+                        <c:v>Completeness</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>homogeneity</c:v>
+                        <c:v>Homogeneity</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>mutual_info</c:v>
+                        <c:v>V-measure</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>rand</c:v>
+                        <c:v>AMI</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>v_measure</c:v>
+                        <c:v>ARI</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2980,7 +3022,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1949836960"/>
+        <c:axId val="1935090896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3023,7 +3065,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1949829888"/>
+        <c:crossAx val="1935095792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3031,7 +3073,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1949829888"/>
+        <c:axId val="1935095792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3139,7 +3181,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1949836960"/>
+        <c:crossAx val="1935090896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3336,19 +3378,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>completeness</c:v>
+                  <c:v>Completeness</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>homogeneity</c:v>
+                  <c:v>Homogeneity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mutual_info</c:v>
+                  <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>rand</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>v_measure</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3366,13 +3408,13 @@
                   <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.35</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3408,19 +3450,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>completeness</c:v>
+                  <c:v>Completeness</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>homogeneity</c:v>
+                  <c:v>Homogeneity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mutual_info</c:v>
+                  <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>rand</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>v_measure</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3438,13 +3480,13 @@
                   <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.67</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3480,19 +3522,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>completeness</c:v>
+                  <c:v>Completeness</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>homogeneity</c:v>
+                  <c:v>Homogeneity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mutual_info</c:v>
+                  <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>rand</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>v_measure</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3510,13 +3552,13 @@
                   <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.85</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3552,19 +3594,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>completeness</c:v>
+                  <c:v>Completeness</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>homogeneity</c:v>
+                  <c:v>Homogeneity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mutual_info</c:v>
+                  <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>rand</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>v_measure</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3582,13 +3624,13 @@
                   <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.89</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3624,19 +3666,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>completeness</c:v>
+                  <c:v>Completeness</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>homogeneity</c:v>
+                  <c:v>Homogeneity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mutual_info</c:v>
+                  <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>rand</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>v_measure</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3654,13 +3696,13 @@
                   <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.81</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.83</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3698,19 +3740,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>completeness</c:v>
+                  <c:v>Completeness</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>homogeneity</c:v>
+                  <c:v>Homogeneity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mutual_info</c:v>
+                  <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>rand</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>v_measure</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3728,13 +3770,13 @@
                   <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.67</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3772,19 +3814,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>completeness</c:v>
+                  <c:v>Completeness</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>homogeneity</c:v>
+                  <c:v>Homogeneity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mutual_info</c:v>
+                  <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>rand</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>v_measure</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3802,13 +3844,13 @@
                   <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.53</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3846,19 +3888,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>completeness</c:v>
+                  <c:v>Completeness</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>homogeneity</c:v>
+                  <c:v>Homogeneity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mutual_info</c:v>
+                  <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>rand</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>v_measure</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3876,13 +3918,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.43</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3898,8 +3940,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1949839680"/>
-        <c:axId val="1949833152"/>
+        <c:axId val="1935094704"/>
+        <c:axId val="1935092528"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -3963,19 +4005,19 @@
                     <c:strCache>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>completeness</c:v>
+                        <c:v>Completeness</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>homogeneity</c:v>
+                        <c:v>Homogeneity</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>mutual_info</c:v>
+                        <c:v>V-measure</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>rand</c:v>
+                        <c:v>AMI</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>v_measure</c:v>
+                        <c:v>ARI</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4001,7 +4043,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1949839680"/>
+        <c:axId val="1935094704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4044,7 +4086,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1949833152"/>
+        <c:crossAx val="1935092528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4052,7 +4094,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1949833152"/>
+        <c:axId val="1935092528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4160,7 +4202,975 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1949839680"/>
+        <c:crossAx val="1935094704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>algorithm4</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:t> 各參數比較</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6:4-0.55</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>工作表1!$B$25:$F$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>4.9999999999999933E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.0000000000000027E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.9999999999999916E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.9999999999999916E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.9999999999999942E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>工作表1!$B$29:$F$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>5.0000000000000044E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.9999999999999925E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.0000000000000036E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.0000000000000053E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.000000000000008E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7:3-0.55</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>工作表1!$B$26:$F$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>3.9999999999999925E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.0000000000000027E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.9999999999999916E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.9999999999999925E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.9999999999999933E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>工作表1!$B$30:$F$30</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>5.0000000000000044E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.9999999999999925E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.0000000000000027E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.0000000000000053E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.000000000000008E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8:2-0.55</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>工作表1!$B$27:$F$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>3.9999999999999925E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.0000000000000027E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.9999999999999916E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.9999999999999925E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.9999999999999925E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>工作表1!$B$31:$F$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>5.0000000000000044E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.9999999999999925E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.0000000000000036E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.0000000000000044E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.000000000000008E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9:1-0.55</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>工作表1!$B$28:$F$28</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>3.9999999999999925E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.0000000000000027E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.9999999999999916E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.9999999999999925E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.9999999999999933E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>工作表1!$B$32:$F$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>6.0000000000000053E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.9999999999999925E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.0000000000000044E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.0000000000000053E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.000000000000008E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1667654096"/>
+        <c:axId val="1667652464"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>工作表1!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>mean</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>工作表1!$B$1:$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Completeness</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Homogeneity</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>V-measure</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>AMI</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>ARI</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>工作表1!$B$2:$F$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1667654096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1667652464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1667652464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1667654096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4401,6 +5411,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5911,6 +6961,509 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6557,6 +8110,357 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="6比4"/>
+      <sheetName val="7比3"/>
+      <sheetName val="8比2"/>
+      <sheetName val="9比1"/>
+      <sheetName val="總比較"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Completeness</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Homogeneity</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>V-measure</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>AMI</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>ARI</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>mean</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>6:4-0.6</v>
+          </cell>
+          <cell r="B3">
+            <v>0.89</v>
+          </cell>
+          <cell r="C3">
+            <v>0.94</v>
+          </cell>
+          <cell r="D3">
+            <v>0.91</v>
+          </cell>
+          <cell r="E3">
+            <v>0.88</v>
+          </cell>
+          <cell r="F3">
+            <v>0.86</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>7:3-0.6</v>
+          </cell>
+          <cell r="B4">
+            <v>0.89</v>
+          </cell>
+          <cell r="C4">
+            <v>0.95</v>
+          </cell>
+          <cell r="D4">
+            <v>0.92</v>
+          </cell>
+          <cell r="E4">
+            <v>0.88</v>
+          </cell>
+          <cell r="F4">
+            <v>0.88</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>8:2-0.55</v>
+          </cell>
+          <cell r="B5">
+            <v>0.92</v>
+          </cell>
+          <cell r="C5">
+            <v>0.91</v>
+          </cell>
+          <cell r="D5">
+            <v>0.92</v>
+          </cell>
+          <cell r="E5">
+            <v>0.9</v>
+          </cell>
+          <cell r="F5">
+            <v>0.86</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>8:2-0.6</v>
+          </cell>
+          <cell r="B6">
+            <v>0.88</v>
+          </cell>
+          <cell r="C6">
+            <v>0.96</v>
+          </cell>
+          <cell r="D6">
+            <v>0.92</v>
+          </cell>
+          <cell r="E6">
+            <v>0.87</v>
+          </cell>
+          <cell r="F6">
+            <v>0.88</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>9:1-0.55</v>
+          </cell>
+          <cell r="B7">
+            <v>0.91</v>
+          </cell>
+          <cell r="C7">
+            <v>0.93</v>
+          </cell>
+          <cell r="D7">
+            <v>0.92</v>
+          </cell>
+          <cell r="E7">
+            <v>0.9</v>
+          </cell>
+          <cell r="F7">
+            <v>0.88</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>2.0000000000000018E-2</v>
+          </cell>
+          <cell r="C28">
+            <v>2.0000000000000018E-2</v>
+          </cell>
+          <cell r="D28">
+            <v>2.0000000000000018E-2</v>
+          </cell>
+          <cell r="E28">
+            <v>2.0000000000000018E-2</v>
+          </cell>
+          <cell r="F28">
+            <v>6.0000000000000053E-2</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>4.0000000000000036E-2</v>
+          </cell>
+          <cell r="C29">
+            <v>9.9999999999998979E-3</v>
+          </cell>
+          <cell r="D29">
+            <v>2.0000000000000018E-2</v>
+          </cell>
+          <cell r="E29">
+            <v>5.0000000000000044E-2</v>
+          </cell>
+          <cell r="F29">
+            <v>5.9999999999999942E-2</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>2.0000000000000018E-2</v>
+          </cell>
+          <cell r="C30">
+            <v>2.0000000000000018E-2</v>
+          </cell>
+          <cell r="D30">
+            <v>1.9999999999999907E-2</v>
+          </cell>
+          <cell r="E30">
+            <v>2.0000000000000018E-2</v>
+          </cell>
+          <cell r="F30">
+            <v>5.0000000000000044E-2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>4.0000000000000036E-2</v>
+          </cell>
+          <cell r="C31">
+            <v>1.9999999999999907E-2</v>
+          </cell>
+          <cell r="D31">
+            <v>3.0000000000000027E-2</v>
+          </cell>
+          <cell r="E31">
+            <v>5.0000000000000044E-2</v>
+          </cell>
+          <cell r="F31">
+            <v>7.999999999999996E-2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>1.9999999999999907E-2</v>
+          </cell>
+          <cell r="C32">
+            <v>2.9999999999999916E-2</v>
+          </cell>
+          <cell r="D32">
+            <v>1.0000000000000009E-2</v>
+          </cell>
+          <cell r="E32">
+            <v>2.0000000000000018E-2</v>
+          </cell>
+          <cell r="F32">
+            <v>5.0000000000000044E-2</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>3.0000000000000027E-2</v>
+          </cell>
+          <cell r="C33">
+            <v>4.0000000000000036E-2</v>
+          </cell>
+          <cell r="D33">
+            <v>3.0000000000000027E-2</v>
+          </cell>
+          <cell r="E33">
+            <v>5.0000000000000044E-2</v>
+          </cell>
+          <cell r="F33">
+            <v>9.9999999999999978E-2</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>2.0000000000000018E-2</v>
+          </cell>
+          <cell r="C34">
+            <v>1.0000000000000009E-2</v>
+          </cell>
+          <cell r="D34">
+            <v>1.0000000000000009E-2</v>
+          </cell>
+          <cell r="E34">
+            <v>2.0000000000000018E-2</v>
+          </cell>
+          <cell r="F34">
+            <v>4.0000000000000036E-2</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>3.0000000000000027E-2</v>
+          </cell>
+          <cell r="C35">
+            <v>2.0000000000000018E-2</v>
+          </cell>
+          <cell r="D35">
+            <v>2.0000000000000018E-2</v>
+          </cell>
+          <cell r="E35">
+            <v>4.0000000000000036E-2</v>
+          </cell>
+          <cell r="F35">
+            <v>7.999999999999996E-2</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>2.0000000000000018E-2</v>
+          </cell>
+          <cell r="C36">
+            <v>9.9999999999998979E-3</v>
+          </cell>
+          <cell r="D36">
+            <v>1.0000000000000009E-2</v>
+          </cell>
+          <cell r="E36">
+            <v>2.0000000000000018E-2</v>
+          </cell>
+          <cell r="F36">
+            <v>4.0000000000000036E-2</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>3.0000000000000027E-2</v>
+          </cell>
+          <cell r="C37">
+            <v>3.0000000000000027E-2</v>
+          </cell>
+          <cell r="D37">
+            <v>3.0000000000000027E-2</v>
+          </cell>
+          <cell r="E37">
+            <v>3.0000000000000027E-2</v>
+          </cell>
+          <cell r="F37">
+            <v>6.0000000000000053E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6824,27 +8728,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -6863,13 +8767,13 @@
         <v>0.02</v>
       </c>
       <c r="D3">
+        <v>0.04</v>
+      </c>
+      <c r="E3">
         <v>0.02</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.04</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6883,13 +8787,13 @@
         <v>0.51</v>
       </c>
       <c r="D4">
+        <v>0.66</v>
+      </c>
+      <c r="E4">
         <v>0.51</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.31</v>
-      </c>
-      <c r="F4">
-        <v>0.66</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6903,13 +8807,13 @@
         <v>0.83</v>
       </c>
       <c r="D5">
+        <v>0.88</v>
+      </c>
+      <c r="E5">
         <v>0.82</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.75</v>
-      </c>
-      <c r="F5">
-        <v>0.88</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6923,13 +8827,13 @@
         <v>0.94</v>
       </c>
       <c r="D6">
+        <v>0.93</v>
+      </c>
+      <c r="E6">
         <v>0.91</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.9</v>
-      </c>
-      <c r="F6">
-        <v>0.93</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6943,13 +8847,13 @@
         <v>0.97</v>
       </c>
       <c r="D7" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="E7" s="2">
         <v>0.79</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>0.8</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.89</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6963,13 +8867,13 @@
         <v>0.99</v>
       </c>
       <c r="D8">
+        <v>0.81</v>
+      </c>
+      <c r="E8">
         <v>0.6</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.55000000000000004</v>
-      </c>
-      <c r="F8">
-        <v>0.81</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6983,13 +8887,13 @@
         <v>1</v>
       </c>
       <c r="D9">
+        <v>0.74</v>
+      </c>
+      <c r="E9">
         <v>0.44</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.35</v>
-      </c>
-      <c r="F9">
-        <v>0.74</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7003,13 +8907,13 @@
         <v>1</v>
       </c>
       <c r="D10">
+        <v>0.69</v>
+      </c>
+      <c r="E10">
         <v>0.33</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.22</v>
-      </c>
-      <c r="F10">
-        <v>0.69</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7028,13 +8932,13 @@
         <v>0.15</v>
       </c>
       <c r="D12">
+        <v>0.25</v>
+      </c>
+      <c r="E12">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.04</v>
-      </c>
-      <c r="F12">
-        <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -7048,13 +8952,13 @@
         <v>0.63</v>
       </c>
       <c r="D13">
+        <v>0.75</v>
+      </c>
+      <c r="E13">
         <v>0.62</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.48</v>
-      </c>
-      <c r="F13">
-        <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7068,13 +8972,13 @@
         <v>0.89</v>
       </c>
       <c r="D14">
+        <v>0.91</v>
+      </c>
+      <c r="E14">
         <v>0.88</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.87</v>
-      </c>
-      <c r="F14">
-        <v>0.91</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7088,13 +8992,13 @@
         <v>0.95</v>
       </c>
       <c r="D15">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="E15">
         <v>0.94</v>
       </c>
       <c r="F15">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -7108,13 +9012,13 @@
         <v>0.98</v>
       </c>
       <c r="D16">
+        <v>0.93</v>
+      </c>
+      <c r="E16">
         <v>0.87</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.9</v>
-      </c>
-      <c r="F16">
-        <v>0.93</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -7128,13 +9032,13 @@
         <v>0.99</v>
       </c>
       <c r="D17">
+        <v>0.84</v>
+      </c>
+      <c r="E17">
         <v>0.67</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.68</v>
-      </c>
-      <c r="F17">
-        <v>0.84</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -7148,13 +9052,13 @@
         <v>1</v>
       </c>
       <c r="D18">
+        <v>0.77</v>
+      </c>
+      <c r="E18">
         <v>0.51</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.5</v>
-      </c>
-      <c r="F18">
-        <v>0.77</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -7168,13 +9072,13 @@
         <v>1</v>
       </c>
       <c r="D19">
+        <v>0.72</v>
+      </c>
+      <c r="E19">
         <v>0.38</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.33</v>
-      </c>
-      <c r="F19">
-        <v>0.72</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -7213,13 +9117,13 @@
         <v>0.39</v>
       </c>
       <c r="D22">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E22">
         <v>0.38</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.16</v>
-      </c>
-      <c r="F22">
-        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -7233,13 +9137,13 @@
         <v>0.77</v>
       </c>
       <c r="D23">
+        <v>0.84</v>
+      </c>
+      <c r="E23">
         <v>0.76</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.61</v>
-      </c>
-      <c r="F23">
-        <v>0.84</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -7253,13 +9157,13 @@
         <v>0.91</v>
       </c>
       <c r="D24">
+        <v>0.9</v>
+      </c>
+      <c r="E24">
         <v>0.86</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.83</v>
-      </c>
-      <c r="F24">
-        <v>0.9</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -7273,13 +9177,13 @@
         <v>0.96</v>
       </c>
       <c r="D25">
+        <v>0.86</v>
+      </c>
+      <c r="E25">
         <v>0.75</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.7</v>
-      </c>
-      <c r="F25">
-        <v>0.86</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -7293,13 +9197,13 @@
         <v>0.98</v>
       </c>
       <c r="D26">
+        <v>0.78</v>
+      </c>
+      <c r="E26">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.4</v>
-      </c>
-      <c r="F26">
-        <v>0.78</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -7313,13 +9217,13 @@
         <v>0.99</v>
       </c>
       <c r="D27">
+        <v>0.71</v>
+      </c>
+      <c r="E27">
         <v>0.4</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0.22</v>
-      </c>
-      <c r="F27">
-        <v>0.71</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -7333,13 +9237,13 @@
         <v>1</v>
       </c>
       <c r="D28">
+        <v>0.67</v>
+      </c>
+      <c r="E28">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>0.11</v>
-      </c>
-      <c r="F28">
-        <v>0.67</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -7358,13 +9262,13 @@
         <v>0.04</v>
       </c>
       <c r="D30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E30">
         <v>0.04</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.01</v>
-      </c>
-      <c r="F30">
-        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -7378,13 +9282,13 @@
         <v>0.06</v>
       </c>
       <c r="D31">
+        <v>0.05</v>
+      </c>
+      <c r="E31">
         <v>0.06</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>0.08</v>
-      </c>
-      <c r="F31">
-        <v>0.05</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -7398,13 +9302,13 @@
         <v>0.03</v>
       </c>
       <c r="D32">
+        <v>0.02</v>
+      </c>
+      <c r="E32">
         <v>0.03</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>0.05</v>
-      </c>
-      <c r="F32">
-        <v>0.02</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -7421,10 +9325,10 @@
         <v>0.01</v>
       </c>
       <c r="E33">
+        <v>0.01</v>
+      </c>
+      <c r="F33">
         <v>0.02</v>
-      </c>
-      <c r="F33">
-        <v>0.01</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -7438,13 +9342,13 @@
         <v>0.01</v>
       </c>
       <c r="D34">
+        <v>0.01</v>
+      </c>
+      <c r="E34">
         <v>0.02</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.04</v>
-      </c>
-      <c r="F34">
-        <v>0.01</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -7458,13 +9362,13 @@
         <v>0</v>
       </c>
       <c r="D35">
+        <v>0.01</v>
+      </c>
+      <c r="E35">
         <v>0.02</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.05</v>
-      </c>
-      <c r="F35">
-        <v>0.01</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -7478,13 +9382,13 @@
         <v>0</v>
       </c>
       <c r="D36">
+        <v>0.01</v>
+      </c>
+      <c r="E36">
         <v>0.02</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>0.06</v>
-      </c>
-      <c r="F36">
-        <v>0.01</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -7498,18 +9402,18 @@
         <v>0</v>
       </c>
       <c r="D37">
+        <v>0.01</v>
+      </c>
+      <c r="E37">
         <v>0.02</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>0.05</v>
-      </c>
-      <c r="F37">
-        <v>0.01</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -7525,26 +9429,26 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7563,13 +9467,13 @@
         <v>0.12</v>
       </c>
       <c r="D3">
+        <v>0.21</v>
+      </c>
+      <c r="E3">
         <v>0.12</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.04</v>
-      </c>
-      <c r="F3">
-        <v>0.21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7583,13 +9487,13 @@
         <v>0.59</v>
       </c>
       <c r="D4">
+        <v>0.72</v>
+      </c>
+      <c r="E4">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.39</v>
-      </c>
-      <c r="F4">
-        <v>0.72</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7603,13 +9507,13 @@
         <v>0.85</v>
       </c>
       <c r="D5">
+        <v>0.89</v>
+      </c>
+      <c r="E5">
         <v>0.84</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.78</v>
-      </c>
-      <c r="F5">
-        <v>0.89</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7623,13 +9527,13 @@
         <v>0.94</v>
       </c>
       <c r="D6">
+        <v>0.93</v>
+      </c>
+      <c r="E6">
         <v>0.91</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.89</v>
-      </c>
-      <c r="F6">
-        <v>0.93</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7643,13 +9547,13 @@
         <v>0.97</v>
       </c>
       <c r="D7" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="E7" s="2">
         <v>0.8</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>0.81</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.89</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7663,13 +9567,13 @@
         <v>0.99</v>
       </c>
       <c r="D8">
+        <v>0.82</v>
+      </c>
+      <c r="E8">
         <v>0.63</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.59</v>
-      </c>
-      <c r="F8">
-        <v>0.82</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7683,13 +9587,13 @@
         <v>1</v>
       </c>
       <c r="D9">
+        <v>0.75</v>
+      </c>
+      <c r="E9">
         <v>0.47</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.39</v>
-      </c>
-      <c r="F9">
-        <v>0.75</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7703,13 +9607,13 @@
         <v>1</v>
       </c>
       <c r="D10">
+        <v>0.71</v>
+      </c>
+      <c r="E10">
         <v>0.35</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.26</v>
-      </c>
-      <c r="F10">
-        <v>0.71</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7728,13 +9632,13 @@
         <v>0.32</v>
       </c>
       <c r="D12">
+        <v>0.49</v>
+      </c>
+      <c r="E12">
         <v>0.32</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.18</v>
-      </c>
-      <c r="F12">
-        <v>0.49</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -7748,13 +9652,13 @@
         <v>0.7</v>
       </c>
       <c r="D13">
+        <v>0.79</v>
+      </c>
+      <c r="E13">
         <v>0.69</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.59</v>
-      </c>
-      <c r="F13">
-        <v>0.79</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7768,13 +9672,13 @@
         <v>0.91</v>
       </c>
       <c r="D14">
+        <v>0.93</v>
+      </c>
+      <c r="E14">
         <v>0.91</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.9</v>
-      </c>
-      <c r="F14">
-        <v>0.93</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7788,13 +9692,13 @@
         <v>0.96</v>
       </c>
       <c r="D15">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="E15">
         <v>0.94</v>
       </c>
       <c r="F15">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -7808,13 +9712,13 @@
         <v>0.98</v>
       </c>
       <c r="D16">
+        <v>0.92</v>
+      </c>
+      <c r="E16">
         <v>0.85</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.9</v>
-      </c>
-      <c r="F16">
-        <v>0.92</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -7828,13 +9732,13 @@
         <v>0.99</v>
       </c>
       <c r="D17">
+        <v>0.85</v>
+      </c>
+      <c r="E17">
         <v>0.68</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.71</v>
-      </c>
-      <c r="F17">
-        <v>0.85</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -7848,13 +9752,13 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.53</v>
+        <v>0.78</v>
       </c>
       <c r="E18">
         <v>0.53</v>
       </c>
       <c r="F18">
-        <v>0.78</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -7868,13 +9772,13 @@
         <v>1</v>
       </c>
       <c r="D19">
+        <v>0.73</v>
+      </c>
+      <c r="E19">
         <v>0.4</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.37</v>
-      </c>
-      <c r="F19">
-        <v>0.73</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -7913,13 +9817,13 @@
         <v>0.43</v>
       </c>
       <c r="D22">
+        <v>0.59</v>
+      </c>
+      <c r="E22">
         <v>0.42</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.21</v>
-      </c>
-      <c r="F22">
-        <v>0.59</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -7933,13 +9837,13 @@
         <v>0.78</v>
       </c>
       <c r="D23">
+        <v>0.84</v>
+      </c>
+      <c r="E23">
         <v>0.77</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.63</v>
-      </c>
-      <c r="F23">
-        <v>0.84</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -7953,13 +9857,13 @@
         <v>0.91</v>
       </c>
       <c r="D24">
+        <v>0.9</v>
+      </c>
+      <c r="E24">
         <v>0.86</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.83</v>
-      </c>
-      <c r="F24">
-        <v>0.9</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -7973,13 +9877,13 @@
         <v>0.96</v>
       </c>
       <c r="D25">
+        <v>0.86</v>
+      </c>
+      <c r="E25">
         <v>0.72</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.65</v>
-      </c>
-      <c r="F25">
-        <v>0.86</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -7993,13 +9897,13 @@
         <v>0.98</v>
       </c>
       <c r="D26">
+        <v>0.77</v>
+      </c>
+      <c r="E26">
         <v>0.52</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.39</v>
-      </c>
-      <c r="F26">
-        <v>0.77</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -8013,13 +9917,13 @@
         <v>0.99</v>
       </c>
       <c r="D27">
+        <v>0.71</v>
+      </c>
+      <c r="E27">
         <v>0.39</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0.23</v>
-      </c>
-      <c r="F27">
-        <v>0.71</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -8033,13 +9937,13 @@
         <v>1</v>
       </c>
       <c r="D28">
+        <v>0.67</v>
+      </c>
+      <c r="E28">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>0.14000000000000001</v>
-      </c>
-      <c r="F28">
-        <v>0.67</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -8058,13 +9962,13 @@
         <v>0.09</v>
       </c>
       <c r="D30">
+        <v>0.13</v>
+      </c>
+      <c r="E30">
         <v>0.09</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.04</v>
-      </c>
-      <c r="F30">
-        <v>0.13</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -8078,13 +9982,13 @@
         <v>0.05</v>
       </c>
       <c r="D31">
+        <v>0.04</v>
+      </c>
+      <c r="E31">
         <v>0.05</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>0.08</v>
-      </c>
-      <c r="F31">
-        <v>0.04</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -8098,13 +10002,13 @@
         <v>0.02</v>
       </c>
       <c r="D32">
+        <v>0.02</v>
+      </c>
+      <c r="E32">
         <v>0.03</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>0.05</v>
-      </c>
-      <c r="F32">
-        <v>0.02</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -8118,13 +10022,13 @@
         <v>0.01</v>
       </c>
       <c r="D33">
+        <v>0.01</v>
+      </c>
+      <c r="E33">
         <v>0.02</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.03</v>
-      </c>
-      <c r="F33">
-        <v>0.01</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -8138,13 +10042,13 @@
         <v>0.01</v>
       </c>
       <c r="D34">
+        <v>0.01</v>
+      </c>
+      <c r="E34">
         <v>0.03</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.05</v>
-      </c>
-      <c r="F34">
-        <v>0.01</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -8158,13 +10062,13 @@
         <v>0</v>
       </c>
       <c r="D35">
+        <v>0.02</v>
+      </c>
+      <c r="E35">
         <v>0.03</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F35">
-        <v>0.02</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -8178,13 +10082,13 @@
         <v>0</v>
       </c>
       <c r="D36">
+        <v>0.01</v>
+      </c>
+      <c r="E36">
         <v>0.03</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F36">
-        <v>0.01</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -8198,18 +10102,18 @@
         <v>0</v>
       </c>
       <c r="D37">
+        <v>0.01</v>
+      </c>
+      <c r="E37">
         <v>0.02</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>0.06</v>
-      </c>
-      <c r="F37">
-        <v>0.01</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -8224,7 +10128,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -8233,20 +10137,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="B1" t="s">
         <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -8265,13 +10169,13 @@
         <v>0.25</v>
       </c>
       <c r="D3" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="E3" s="2">
         <v>0.25</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>0.1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8285,13 +10189,13 @@
         <v>0.64</v>
       </c>
       <c r="D4" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E4" s="2">
         <v>0.63</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>0.45</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8305,13 +10209,13 @@
         <v>0.86</v>
       </c>
       <c r="D5" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="E5" s="2">
         <v>0.85</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>0.79</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.89</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8325,13 +10229,13 @@
         <v>0.94</v>
       </c>
       <c r="D6" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="E6" s="2">
         <v>0.9</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>0.89</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.92</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8345,13 +10249,13 @@
         <v>0.97</v>
       </c>
       <c r="D7" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="E7" s="3">
         <v>0.81</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>0.82</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.89</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8365,13 +10269,13 @@
         <v>0.99</v>
       </c>
       <c r="D8" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="E8" s="2">
         <v>0.65</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>0.62</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.83</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8385,13 +10289,13 @@
         <v>0.99</v>
       </c>
       <c r="D9" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="E9" s="2">
         <v>0.5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>0.43</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.76</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8405,13 +10309,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="E10" s="2">
         <v>0.39</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>0.3</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.72</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8430,13 +10334,13 @@
         <v>0.42</v>
       </c>
       <c r="D12" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E12" s="2">
         <v>0.41</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>0.24</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8450,13 +10354,13 @@
         <v>0.76</v>
       </c>
       <c r="D13" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="E13" s="2">
         <v>0.75</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>0.67</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.84</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8470,13 +10374,13 @@
         <v>0.91</v>
       </c>
       <c r="D14" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="E14" s="2">
         <v>0.9</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>0.89</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.92</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8490,13 +10394,13 @@
         <v>0.96</v>
       </c>
       <c r="D15" s="2">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="E15" s="2">
         <v>0.93</v>
       </c>
       <c r="F15" s="2">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8510,13 +10414,13 @@
         <v>0.98</v>
       </c>
       <c r="D16" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="E16" s="2">
         <v>0.87</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>0.89</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.93</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8530,13 +10434,13 @@
         <v>0.99</v>
       </c>
       <c r="D17" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="E17" s="2">
         <v>0.71</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>0.75</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.85</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8550,13 +10454,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E18" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>0.63</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8570,13 +10474,13 @@
         <v>1</v>
       </c>
       <c r="D19" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="E19" s="2">
         <v>0.45</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>0.5</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.76</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -8615,13 +10519,13 @@
         <v>0.53</v>
       </c>
       <c r="D22" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="E22" s="2">
         <v>0.52</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22" s="2">
         <v>0.28999999999999998</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0.67</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -8635,13 +10539,13 @@
         <v>0.81</v>
       </c>
       <c r="D23" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="E23" s="2">
         <v>0.79</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F23" s="2">
         <v>0.65</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.85</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -8655,13 +10559,13 @@
         <v>0.91</v>
       </c>
       <c r="D24" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="E24" s="2">
         <v>0.85</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24" s="2">
         <v>0.8</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0.89</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -8675,13 +10579,13 @@
         <v>0.95</v>
       </c>
       <c r="D25" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="E25" s="2">
         <v>0.73</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F25" s="2">
         <v>0.66</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0.86</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -8695,13 +10599,13 @@
         <v>0.98</v>
       </c>
       <c r="D26" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E26" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F26" s="2">
         <v>0.49</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0.8</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -8715,13 +10619,13 @@
         <v>0.99</v>
       </c>
       <c r="D27" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="E27" s="2">
         <v>0.44</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="2">
         <v>0.28000000000000003</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0.74</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -8735,13 +10639,13 @@
         <v>1</v>
       </c>
       <c r="D28" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E28" s="2">
         <v>0.33</v>
       </c>
-      <c r="E28" s="2">
+      <c r="F28" s="2">
         <v>0.16</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0.7</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -8760,13 +10664,13 @@
         <v>0.08</v>
       </c>
       <c r="D30" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="E30" s="2">
         <v>0.08</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F30" s="2">
         <v>0.05</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0.11</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -8780,13 +10684,13 @@
         <v>0.04</v>
       </c>
       <c r="D31" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E31" s="2">
         <v>0.04</v>
       </c>
-      <c r="E31" s="2">
+      <c r="F31" s="2">
         <v>0.08</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0.03</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -8800,13 +10704,13 @@
         <v>0.02</v>
       </c>
       <c r="D32" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E32" s="2">
         <v>0.02</v>
       </c>
-      <c r="E32" s="2">
+      <c r="F32" s="2">
         <v>0.05</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0.01</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -8820,13 +10724,13 @@
         <v>0.01</v>
       </c>
       <c r="D33" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E33" s="2">
         <v>0.02</v>
       </c>
-      <c r="E33" s="2">
+      <c r="F33" s="2">
         <v>0.03</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0.01</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -8840,13 +10744,13 @@
         <v>0.01</v>
       </c>
       <c r="D34" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E34" s="2">
         <v>0.02</v>
       </c>
-      <c r="E34" s="2">
+      <c r="F34" s="2">
         <v>0.04</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0.01</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -8860,13 +10764,13 @@
         <v>0</v>
       </c>
       <c r="D35" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E35" s="2">
         <v>0.03</v>
       </c>
-      <c r="E35" s="2">
+      <c r="F35" s="2">
         <v>0.06</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0.01</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -8880,13 +10784,13 @@
         <v>0</v>
       </c>
       <c r="D36" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E36" s="2">
         <v>0.03</v>
       </c>
-      <c r="E36" s="2">
+      <c r="F36" s="2">
         <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0.01</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -8900,18 +10804,18 @@
         <v>0</v>
       </c>
       <c r="D37" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E37" s="2">
         <v>0.02</v>
       </c>
-      <c r="E37" s="2">
+      <c r="F37" s="2">
         <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0.01</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -8926,7 +10830,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="A1:F38"/>
+      <selection activeCell="F1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -8935,20 +10839,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="B1" t="s">
         <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -8967,13 +10871,13 @@
         <v>0.35</v>
       </c>
       <c r="D3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="2">
         <v>0.35</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>0.16</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8987,13 +10891,13 @@
         <v>0.69</v>
       </c>
       <c r="D4" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="E4" s="2">
         <v>0.67</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>0.52</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.78</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9007,13 +10911,13 @@
         <v>0.86</v>
       </c>
       <c r="D5" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="E5" s="2">
         <v>0.85</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>0.8</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.89</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -9027,13 +10931,13 @@
         <v>0.93</v>
       </c>
       <c r="D6" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="E6" s="3">
         <v>0.89</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>0.88</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.92</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9047,13 +10951,13 @@
         <v>0.96</v>
       </c>
       <c r="D7" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E7" s="2">
         <v>0.81</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>0.83</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -9067,13 +10971,13 @@
         <v>0.98</v>
       </c>
       <c r="D8" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="E8" s="2">
         <v>0.67</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>0.66</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.84</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9087,13 +10991,13 @@
         <v>0.99</v>
       </c>
       <c r="D9" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="E9" s="2">
         <v>0.53</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>0.48</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.78</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9107,13 +11011,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="E10" s="2">
         <v>0.43</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>0.36</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.74</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9132,13 +11036,13 @@
         <v>0.48</v>
       </c>
       <c r="D12" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="E12" s="2">
         <v>0.48</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>0.28999999999999998</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.63</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9152,13 +11056,13 @@
         <v>0.78</v>
       </c>
       <c r="D13" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="E13" s="2">
         <v>0.77</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>0.71</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.85</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9172,13 +11076,13 @@
         <v>0.9</v>
       </c>
       <c r="D14" s="2">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="E14" s="2">
         <v>0.89</v>
       </c>
       <c r="F14" s="2">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9192,13 +11096,13 @@
         <v>0.95</v>
       </c>
       <c r="D15" s="2">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="E15" s="2">
         <v>0.93</v>
       </c>
       <c r="F15" s="2">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -9212,13 +11116,13 @@
         <v>0.98</v>
       </c>
       <c r="D16" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="E16" s="2">
         <v>0.87</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>0.92</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.93</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -9232,13 +11136,13 @@
         <v>0.99</v>
       </c>
       <c r="D17" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="E17" s="2">
         <v>0.73</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>0.79</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.87</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9252,13 +11156,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="E18" s="2">
         <v>0.6</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>0.66</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.81</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9272,13 +11176,13 @@
         <v>1</v>
       </c>
       <c r="D19" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="E19" s="2">
         <v>0.49</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>0.56999999999999995</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.77</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -9297,13 +11201,13 @@
         <v>0.16</v>
       </c>
       <c r="D21" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="E21" s="2">
         <v>0.15</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="2">
         <v>0.03</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.26</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -9317,13 +11221,13 @@
         <v>0.59</v>
       </c>
       <c r="D22" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E22" s="2">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22" s="2">
         <v>0.33</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0.7</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -9337,13 +11241,13 @@
         <v>0.8</v>
       </c>
       <c r="D23" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="E23" s="2">
         <v>0.78</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F23" s="2">
         <v>0.66</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.85</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -9357,13 +11261,13 @@
         <v>0.91</v>
       </c>
       <c r="D24" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="E24" s="2">
         <v>0.85</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24" s="2">
         <v>0.83</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0.89</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -9377,13 +11281,13 @@
         <v>0.95</v>
       </c>
       <c r="D25" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="E25" s="2">
         <v>0.76</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F25" s="2">
         <v>0.74</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0.87</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -9397,13 +11301,13 @@
         <v>0.97</v>
       </c>
       <c r="D26" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E26" s="2">
         <v>0.6</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F26" s="2">
         <v>0.5</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0.8</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -9417,13 +11321,13 @@
         <v>0.99</v>
       </c>
       <c r="D27" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="E27" s="2">
         <v>0.46</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="2">
         <v>0.3</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0.74</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -9437,13 +11341,13 @@
         <v>0.99</v>
       </c>
       <c r="D28" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E28" s="2">
         <v>0.36</v>
       </c>
-      <c r="E28" s="2">
+      <c r="F28" s="2">
         <v>0.2</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0.7</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -9462,13 +11366,13 @@
         <v>0.06</v>
       </c>
       <c r="D30" s="2">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E30" s="2">
         <v>0.06</v>
       </c>
       <c r="F30" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -9482,13 +11386,13 @@
         <v>0.04</v>
       </c>
       <c r="D31" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E31" s="2">
         <v>0.04</v>
       </c>
-      <c r="E31" s="2">
+      <c r="F31" s="2">
         <v>0.08</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0.03</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -9502,13 +11406,13 @@
         <v>0.02</v>
       </c>
       <c r="D32" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E32" s="2">
         <v>0.02</v>
       </c>
-      <c r="E32" s="2">
+      <c r="F32" s="2">
         <v>0.04</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0.01</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -9522,13 +11426,13 @@
         <v>0.01</v>
       </c>
       <c r="D33" s="2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="E33" s="2">
         <v>0.02</v>
       </c>
       <c r="F33" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -9542,13 +11446,13 @@
         <v>0.01</v>
       </c>
       <c r="D34" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E34" s="2">
         <v>0.02</v>
       </c>
-      <c r="E34" s="2">
+      <c r="F34" s="2">
         <v>0.03</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0.01</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -9562,13 +11466,13 @@
         <v>0</v>
       </c>
       <c r="D35" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E35" s="2">
         <v>0.02</v>
       </c>
-      <c r="E35" s="2">
+      <c r="F35" s="2">
         <v>0.06</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0.01</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -9582,13 +11486,13 @@
         <v>0</v>
       </c>
       <c r="D36" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E36" s="2">
         <v>0.03</v>
       </c>
-      <c r="E36" s="2">
+      <c r="F36" s="2">
         <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0.01</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -9602,18 +11506,584 @@
         <v>0</v>
       </c>
       <c r="D37" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E37" s="2">
         <v>0.03</v>
       </c>
-      <c r="E37" s="2">
+      <c r="F37" s="2">
         <v>0.08</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0.01</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>0.92</v>
+      </c>
+      <c r="C3">
+        <v>0.94</v>
+      </c>
+      <c r="D3">
+        <v>0.93</v>
+      </c>
+      <c r="E3">
+        <v>0.92</v>
+      </c>
+      <c r="F3">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.92</v>
+      </c>
+      <c r="C5">
+        <v>0.94</v>
+      </c>
+      <c r="D5">
+        <v>0.93</v>
+      </c>
+      <c r="E5">
+        <v>0.91</v>
+      </c>
+      <c r="F5">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0.92</v>
+      </c>
+      <c r="C6">
+        <v>0.94</v>
+      </c>
+      <c r="D6">
+        <v>0.93</v>
+      </c>
+      <c r="E6">
+        <v>0.91</v>
+      </c>
+      <c r="F6">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.97</v>
+      </c>
+      <c r="C8">
+        <v>0.97</v>
+      </c>
+      <c r="D8">
+        <v>0.96</v>
+      </c>
+      <c r="E8">
+        <v>0.95</v>
+      </c>
+      <c r="F8">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.96</v>
+      </c>
+      <c r="C9">
+        <v>0.97</v>
+      </c>
+      <c r="D9">
+        <v>0.96</v>
+      </c>
+      <c r="E9">
+        <v>0.96</v>
+      </c>
+      <c r="F9">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.96</v>
+      </c>
+      <c r="C10">
+        <v>0.97</v>
+      </c>
+      <c r="D10">
+        <v>0.96</v>
+      </c>
+      <c r="E10">
+        <v>0.95</v>
+      </c>
+      <c r="F10">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.96</v>
+      </c>
+      <c r="C11">
+        <v>0.97</v>
+      </c>
+      <c r="D11">
+        <v>0.96</v>
+      </c>
+      <c r="E11">
+        <v>0.95</v>
+      </c>
+      <c r="F11">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0.87</v>
+      </c>
+      <c r="C13">
+        <v>0.9</v>
+      </c>
+      <c r="D13">
+        <v>0.89</v>
+      </c>
+      <c r="E13">
+        <v>0.86</v>
+      </c>
+      <c r="F13">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0.87</v>
+      </c>
+      <c r="C14">
+        <v>0.9</v>
+      </c>
+      <c r="D14">
+        <v>0.9</v>
+      </c>
+      <c r="E14">
+        <v>0.86</v>
+      </c>
+      <c r="F14">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0.87</v>
+      </c>
+      <c r="C15">
+        <v>0.9</v>
+      </c>
+      <c r="D15">
+        <v>0.89</v>
+      </c>
+      <c r="E15">
+        <v>0.86</v>
+      </c>
+      <c r="F15">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0.86</v>
+      </c>
+      <c r="C16">
+        <v>0.9</v>
+      </c>
+      <c r="D16">
+        <v>0.88</v>
+      </c>
+      <c r="E16">
+        <v>0.85</v>
+      </c>
+      <c r="F16">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>0.02</v>
+      </c>
+      <c r="C18">
+        <v>0.01</v>
+      </c>
+      <c r="D18">
+        <v>0.01</v>
+      </c>
+      <c r="E18">
+        <v>0.02</v>
+      </c>
+      <c r="F18">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>0.02</v>
+      </c>
+      <c r="C19">
+        <v>0.01</v>
+      </c>
+      <c r="D19">
+        <v>0.01</v>
+      </c>
+      <c r="E19">
+        <v>0.02</v>
+      </c>
+      <c r="F19">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>0.02</v>
+      </c>
+      <c r="C20">
+        <v>0.01</v>
+      </c>
+      <c r="D20">
+        <v>0.01</v>
+      </c>
+      <c r="E20">
+        <v>0.02</v>
+      </c>
+      <c r="F20">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>0.02</v>
+      </c>
+      <c r="C21">
+        <v>0.01</v>
+      </c>
+      <c r="D21">
+        <v>0.01</v>
+      </c>
+      <c r="E21">
+        <v>0.02</v>
+      </c>
+      <c r="F21">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <f>B8-B3</f>
+        <v>4.9999999999999933E-2</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:F25" si="0">C8-C3</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>5.9999999999999942E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f>B9-B4</f>
+        <v>3.9999999999999925E-2</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="B26:F26" si="1">C9-C4</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>3.9999999999999925E-2</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999933E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f t="shared" ref="B27:F27" si="2">B10-B5</f>
+        <v>3.9999999999999925E-2</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>3.9999999999999925E-2</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>3.9999999999999925E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f t="shared" ref="B28:F28" si="3">B11-B6</f>
+        <v>3.9999999999999925E-2</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="3"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>3.9999999999999925E-2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>4.9999999999999933E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <f>B3-B13</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:F29" si="4">C3-C13</f>
+        <v>3.9999999999999925E-2</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="4"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="4"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>9.000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f t="shared" ref="B30:F32" si="5">B4-B14</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="5"/>
+        <v>3.9999999999999925E-2</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="5"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="5"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="5"/>
+        <v>9.000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f t="shared" si="5"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="5"/>
+        <v>3.9999999999999925E-2</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="5"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="5"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="5"/>
+        <v>9.000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f t="shared" si="5"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="5"/>
+        <v>3.9999999999999925E-2</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="5"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="5"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="5"/>
+        <v>9.000000000000008E-2</v>
       </c>
     </row>
   </sheetData>

--- a/log/clustering_log/clustering4/clustering4 sumary.xlsx
+++ b/log/clustering_log/clustering4/clustering4 sumary.xlsx
@@ -9,18 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11550" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11550" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="6比4" sheetId="1" r:id="rId1"/>
-    <sheet name="7比3" sheetId="2" r:id="rId2"/>
-    <sheet name="8比2" sheetId="3" r:id="rId3"/>
-    <sheet name="9比1" sheetId="4" r:id="rId4"/>
-    <sheet name="工作表1" sheetId="5" r:id="rId5"/>
+    <sheet name="5比5" sheetId="6" r:id="rId1"/>
+    <sheet name="6比4" sheetId="1" r:id="rId2"/>
+    <sheet name="7比3" sheetId="2" r:id="rId3"/>
+    <sheet name="8比2" sheetId="3" r:id="rId4"/>
+    <sheet name="9比1" sheetId="4" r:id="rId5"/>
+    <sheet name="工作表1" sheetId="5" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="22">
   <si>
     <t>mean</t>
   </si>
@@ -97,6 +95,9 @@
   <si>
     <t>負</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test finished in 23333.65 seconds</t>
   </si>
 </sst>
 </file>
@@ -290,7 +291,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6比4'!$A$3</c:f>
+              <c:f>'5比5'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -311,7 +312,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'6比4'!$B$1:$F$1</c:f>
+              <c:f>'5比5'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -334,21 +335,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'6比4'!$B$3:$F$3</c:f>
+              <c:f>'5比5'!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.98</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -362,7 +363,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6比4'!$A$4</c:f>
+              <c:f>'5比5'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -383,7 +384,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'6比4'!$B$1:$F$1</c:f>
+              <c:f>'5比5'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -406,7 +407,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'6比4'!$B$4:$F$4</c:f>
+              <c:f>'5比5'!$B$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -414,16 +415,16 @@
                   <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.31</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -434,7 +435,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6比4'!$A$5</c:f>
+              <c:f>'5比5'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -455,7 +456,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'6比4'!$B$1:$F$1</c:f>
+              <c:f>'5比5'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -478,24 +479,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'6比4'!$B$5:$F$5</c:f>
+              <c:f>'5比5'!$B$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.93</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.75</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -506,7 +507,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6比4'!$A$6</c:f>
+              <c:f>'5比5'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -527,7 +528,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'6比4'!$B$1:$F$1</c:f>
+              <c:f>'5比5'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -550,7 +551,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'6比4'!$B$6:$F$6</c:f>
+              <c:f>'5比5'!$B$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -558,16 +559,16 @@
                   <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -578,7 +579,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6比4'!$A$7</c:f>
+              <c:f>'5比5'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -599,7 +600,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'6比4'!$B$1:$F$1</c:f>
+              <c:f>'5比5'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -622,7 +623,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'6比4'!$B$7:$F$7</c:f>
+              <c:f>'5比5'!$B$7:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -650,7 +651,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6比4'!$A$8</c:f>
+              <c:f>'5比5'!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -673,7 +674,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'6比4'!$B$1:$F$1</c:f>
+              <c:f>'5比5'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -696,7 +697,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'6比4'!$B$8:$F$8</c:f>
+              <c:f>'5比5'!$B$8:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -707,10 +708,10 @@
                   <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.55000000000000004</c:v>
@@ -724,7 +725,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6比4'!$A$9</c:f>
+              <c:f>'5比5'!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -747,7 +748,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'6比4'!$B$1:$F$1</c:f>
+              <c:f>'5比5'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -770,24 +771,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'6比4'!$B$9:$F$9</c:f>
+              <c:f>'5比5'!$B$9:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.59</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.44</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -798,7 +799,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6比4'!$A$10</c:f>
+              <c:f>'5比5'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -821,7 +822,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'6比4'!$B$1:$F$1</c:f>
+              <c:f>'5比5'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -844,7 +845,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'6比4'!$B$10:$F$10</c:f>
+              <c:f>'5比5'!$B$10:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -858,7 +859,7 @@
                   <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.22</c:v>
@@ -877,8 +878,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="276293616"/>
-        <c:axId val="276289264"/>
+        <c:axId val="432085584"/>
+        <c:axId val="432094288"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -890,7 +891,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'6比4'!$A$2</c15:sqref>
+                          <c15:sqref>'5比5'!$A$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -935,7 +936,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'6比4'!$B$1:$F$1</c15:sqref>
+                          <c15:sqref>'5比5'!$B$1:$F$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -964,7 +965,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'6比4'!$B$2:$F$2</c15:sqref>
+                          <c15:sqref>'5比5'!$B$2:$F$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -980,7 +981,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="276293616"/>
+        <c:axId val="432085584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,7 +1024,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276289264"/>
+        <c:crossAx val="432094288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1031,7 +1032,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="276289264"/>
+        <c:axId val="432094288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1139,7 +1140,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276293616"/>
+        <c:crossAx val="432085584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1255,7 +1256,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>algorithm3</a:t>
+              <a:t>algorithm4</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-TW" altLang="en-US"/>
@@ -1263,7 +1264,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>7:3</a:t>
+              <a:t>6:4</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US"/>
           </a:p>
@@ -1311,7 +1312,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'7比3'!$A$3</c:f>
+              <c:f>'6比4'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1332,7 +1333,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'7比3'!$B$1:$F$1</c:f>
+              <c:f>'6比4'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1355,24 +1356,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'7比3'!$B$3:$F$3</c:f>
+              <c:f>'6比4'!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.94</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1383,7 +1384,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'7比3'!$A$4</c:f>
+              <c:f>'6比4'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1404,7 +1405,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'7比3'!$B$1:$F$1</c:f>
+              <c:f>'6比4'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1427,7 +1428,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'7比3'!$B$4:$F$4</c:f>
+              <c:f>'6比4'!$B$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1435,16 +1436,16 @@
                   <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1455,7 +1456,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'7比3'!$A$5</c:f>
+              <c:f>'6比4'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1476,7 +1477,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'7比3'!$B$1:$F$1</c:f>
+              <c:f>'6比4'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1499,7 +1500,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'7比3'!$B$5:$F$5</c:f>
+              <c:f>'6比4'!$B$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1507,16 +1508,16 @@
                   <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.89</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1527,7 +1528,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'7比3'!$A$6</c:f>
+              <c:f>'6比4'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1548,7 +1549,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'7比3'!$B$1:$F$1</c:f>
+              <c:f>'6比4'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1571,7 +1572,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'7比3'!$B$6:$F$6</c:f>
+              <c:f>'6比4'!$B$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1588,7 +1589,7 @@
                   <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1599,7 +1600,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'7比3'!$A$7</c:f>
+              <c:f>'6比4'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1620,7 +1621,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'7比3'!$B$1:$F$1</c:f>
+              <c:f>'6比4'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1643,12 +1644,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'7比3'!$B$7:$F$7</c:f>
+              <c:f>'6比4'!$B$7:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.83</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.97</c:v>
@@ -1657,10 +1658,10 @@
                   <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1671,7 +1672,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'7比3'!$A$8</c:f>
+              <c:f>'6比4'!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1694,7 +1695,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'7比3'!$B$1:$F$1</c:f>
+              <c:f>'6比4'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1717,24 +1718,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'7比3'!$B$8:$F$8</c:f>
+              <c:f>'6比4'!$B$8:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.7</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1745,7 +1746,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'7比3'!$A$9</c:f>
+              <c:f>'6比4'!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1768,7 +1769,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'7比3'!$B$1:$F$1</c:f>
+              <c:f>'6比4'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1791,24 +1792,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'7比3'!$B$9:$F$9</c:f>
+              <c:f>'6比4'!$B$9:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1819,7 +1820,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'7比3'!$A$10</c:f>
+              <c:f>'6比4'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1842,7 +1843,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'7比3'!$B$1:$F$1</c:f>
+              <c:f>'6比4'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1865,24 +1866,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'7比3'!$B$10:$F$10</c:f>
+              <c:f>'6比4'!$B$10:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1898,8 +1899,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="276287088"/>
-        <c:axId val="276294160"/>
+        <c:axId val="324460832"/>
+        <c:axId val="324468992"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1911,7 +1912,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'7比3'!$A$2</c15:sqref>
+                          <c15:sqref>'6比4'!$A$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1956,7 +1957,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'7比3'!$B$1:$F$1</c15:sqref>
+                          <c15:sqref>'6比4'!$B$1:$F$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1985,7 +1986,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'7比3'!$B$2:$F$2</c15:sqref>
+                          <c15:sqref>'6比4'!$B$2:$F$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2001,7 +2002,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="276287088"/>
+        <c:axId val="324460832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2044,7 +2045,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276294160"/>
+        <c:crossAx val="324468992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2052,7 +2053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="276294160"/>
+        <c:axId val="324468992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2160,7 +2161,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276287088"/>
+        <c:crossAx val="324460832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2284,7 +2285,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>8:2</a:t>
+              <a:t>7:3</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US"/>
           </a:p>
@@ -2332,7 +2333,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8比2'!$A$3</c:f>
+              <c:f>'7比3'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2353,7 +2354,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'8比2'!$B$1:$F$1</c:f>
+              <c:f>'7比3'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2376,24 +2377,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8比2'!$B$3:$F$3</c:f>
+              <c:f>'7比3'!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.92</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2404,7 +2405,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8比2'!$A$4</c:f>
+              <c:f>'7比3'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2425,7 +2426,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'8比2'!$B$1:$F$1</c:f>
+              <c:f>'7比3'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2448,7 +2449,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8比2'!$B$4:$F$4</c:f>
+              <c:f>'7比3'!$B$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2456,16 +2457,16 @@
                   <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.45</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2476,7 +2477,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8比2'!$A$5</c:f>
+              <c:f>'7比3'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2497,7 +2498,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'8比2'!$B$1:$F$1</c:f>
+              <c:f>'7比3'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2520,24 +2521,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8比2'!$B$5:$F$5</c:f>
+              <c:f>'7比3'!$B$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.92</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.79</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2548,7 +2549,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8比2'!$A$6</c:f>
+              <c:f>'7比3'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2569,7 +2570,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'8比2'!$B$1:$F$1</c:f>
+              <c:f>'7比3'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2592,7 +2593,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8比2'!$B$6:$F$6</c:f>
+              <c:f>'7比3'!$B$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2603,10 +2604,10 @@
                   <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.89</c:v>
@@ -2620,7 +2621,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8比2'!$A$7</c:f>
+              <c:f>'7比3'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2641,7 +2642,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'8比2'!$B$1:$F$1</c:f>
+              <c:f>'7比3'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2664,7 +2665,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8比2'!$B$7:$F$7</c:f>
+              <c:f>'7比3'!$B$7:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2678,10 +2679,10 @@
                   <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.81</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2692,7 +2693,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8比2'!$A$8</c:f>
+              <c:f>'7比3'!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2715,7 +2716,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'8比2'!$B$1:$F$1</c:f>
+              <c:f>'7比3'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2738,24 +2739,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8比2'!$B$8:$F$8</c:f>
+              <c:f>'7比3'!$B$8:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.71</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.62</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2766,7 +2767,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8比2'!$A$9</c:f>
+              <c:f>'7比3'!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2789,7 +2790,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'8比2'!$B$1:$F$1</c:f>
+              <c:f>'7比3'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2812,24 +2813,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8比2'!$B$9:$F$9</c:f>
+              <c:f>'7比3'!$B$9:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.62</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.43</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2840,7 +2841,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8比2'!$A$10</c:f>
+              <c:f>'7比3'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2863,7 +2864,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'8比2'!$B$1:$F$1</c:f>
+              <c:f>'7比3'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2886,24 +2887,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8比2'!$B$10:$F$10</c:f>
+              <c:f>'7比3'!$B$10:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2919,8 +2920,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1935090896"/>
-        <c:axId val="1935095792"/>
+        <c:axId val="324470080"/>
+        <c:axId val="324461376"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2932,7 +2933,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'8比2'!$A$2</c15:sqref>
+                          <c15:sqref>'7比3'!$A$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2977,7 +2978,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'8比2'!$B$1:$F$1</c15:sqref>
+                          <c15:sqref>'7比3'!$B$1:$F$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3006,7 +3007,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'8比2'!$B$2:$F$2</c15:sqref>
+                          <c15:sqref>'7比3'!$B$2:$F$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3022,7 +3023,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1935090896"/>
+        <c:axId val="324470080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3065,7 +3066,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1935095792"/>
+        <c:crossAx val="324461376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3073,7 +3074,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1935095792"/>
+        <c:axId val="324461376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3181,7 +3182,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1935090896"/>
+        <c:crossAx val="324470080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3305,7 +3306,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>9:1</a:t>
+              <a:t>8:2</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US"/>
           </a:p>
@@ -3353,7 +3354,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'9比1'!$A$3</c:f>
+              <c:f>'8比2'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3374,7 +3375,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'9比1'!$B$1:$F$1</c:f>
+              <c:f>'8比2'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3397,24 +3398,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9比1'!$B$3:$F$3</c:f>
+              <c:f>'8比2'!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.91</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3425,7 +3426,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'9比1'!$A$4</c:f>
+              <c:f>'8比2'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3446,7 +3447,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'9比1'!$B$1:$F$1</c:f>
+              <c:f>'8比2'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3469,24 +3470,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9比1'!$B$4:$F$4</c:f>
+              <c:f>'8比2'!$B$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.91</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.67</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.52</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3497,7 +3498,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'9比1'!$A$5</c:f>
+              <c:f>'8比2'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3518,7 +3519,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'9比1'!$B$1:$F$1</c:f>
+              <c:f>'8比2'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3541,7 +3542,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9比1'!$B$5:$F$5</c:f>
+              <c:f>'8比2'!$B$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3558,7 +3559,7 @@
                   <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3569,7 +3570,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'9比1'!$A$6</c:f>
+              <c:f>'8比2'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3590,7 +3591,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'9比1'!$B$1:$F$1</c:f>
+              <c:f>'8比2'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3613,24 +3614,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9比1'!$B$6:$F$6</c:f>
+              <c:f>'8比2'!$B$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.9</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3641,7 +3642,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'9比1'!$A$7</c:f>
+              <c:f>'8比2'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3662,7 +3663,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'9比1'!$B$1:$F$1</c:f>
+              <c:f>'8比2'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3685,24 +3686,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9比1'!$B$7:$F$7</c:f>
+              <c:f>'8比2'!$B$7:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.84</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3713,7 +3714,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'9比1'!$A$8</c:f>
+              <c:f>'8比2'!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3736,7 +3737,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'9比1'!$B$1:$F$1</c:f>
+              <c:f>'8比2'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3759,24 +3760,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9比1'!$B$8:$F$8</c:f>
+              <c:f>'8比2'!$B$8:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.73</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.67</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3787,7 +3788,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'9比1'!$A$9</c:f>
+              <c:f>'8比2'!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3810,7 +3811,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'9比1'!$B$1:$F$1</c:f>
+              <c:f>'8比2'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3833,24 +3834,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9比1'!$B$9:$F$9</c:f>
+              <c:f>'8比2'!$B$9:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.64</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3861,7 +3862,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'9比1'!$A$10</c:f>
+              <c:f>'8比2'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3884,7 +3885,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'9比1'!$B$1:$F$1</c:f>
+              <c:f>'8比2'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3907,24 +3908,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9比1'!$B$10:$F$10</c:f>
+              <c:f>'8比2'!$B$10:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.43</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.36</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3940,8 +3941,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1935094704"/>
-        <c:axId val="1935092528"/>
+        <c:axId val="324458656"/>
+        <c:axId val="324466816"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -3953,7 +3954,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'9比1'!$A$2</c15:sqref>
+                          <c15:sqref>'8比2'!$A$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3998,7 +3999,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'9比1'!$B$1:$F$1</c15:sqref>
+                          <c15:sqref>'8比2'!$B$1:$F$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4027,7 +4028,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'9比1'!$B$2:$F$2</c15:sqref>
+                          <c15:sqref>'8比2'!$B$2:$F$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4043,7 +4044,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1935094704"/>
+        <c:axId val="324458656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4086,7 +4087,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1935092528"/>
+        <c:crossAx val="324466816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4094,7 +4095,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1935092528"/>
+        <c:axId val="324466816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4202,7 +4203,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1935094704"/>
+        <c:crossAx val="324458656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4318,6 +4319,1027 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>algorithm3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:t> 標題比內文關鍵字</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>9:1</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9比1'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'9比1'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9比1'!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9比1'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'9比1'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9比1'!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9比1'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'9比1'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9比1'!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9比1'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.55</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'9比1'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9比1'!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9比1'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'9比1'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9比1'!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9比1'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.65</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'9比1'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9比1'!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9比1'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'9比1'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9比1'!$B$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9比1'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'9比1'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9比1'!$B$10:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="324467360"/>
+        <c:axId val="324461920"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'9比1'!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>mean</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:errBars>
+                  <c:errBarType val="both"/>
+                  <c:errValType val="stdErr"/>
+                  <c:noEndCap val="0"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:errBars>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'9比1'!$B$1:$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Completeness</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Homogeneity</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>V-measure</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>AMI</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>ARI</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'9比1'!$B$2:$F$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="324467360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="324461920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="324461920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="324467360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
               <a:t>algorithm4</a:t>
             </a:r>
             <a:r>
@@ -4925,8 +5947,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="1667654096"/>
-        <c:axId val="1667652464"/>
+        <c:axId val="324459744"/>
+        <c:axId val="324462464"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -5010,7 +6032,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1667654096"/>
+        <c:axId val="324459744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5053,7 +6075,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1667652464"/>
+        <c:crossAx val="324462464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5061,7 +6083,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1667652464"/>
+        <c:axId val="324462464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5170,7 +6192,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1667654096"/>
+        <c:crossAx val="324459744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5451,6 +6473,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -7966,7 +9028,547 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8001,7 +9603,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8019,43 +9621,6 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="圖表 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8149,318 +9714,41 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="6比4"/>
-      <sheetName val="7比3"/>
-      <sheetName val="8比2"/>
-      <sheetName val="9比1"/>
-      <sheetName val="總比較"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Completeness</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Homogeneity</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>V-measure</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>AMI</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>ARI</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>mean</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>6:4-0.6</v>
-          </cell>
-          <cell r="B3">
-            <v>0.89</v>
-          </cell>
-          <cell r="C3">
-            <v>0.94</v>
-          </cell>
-          <cell r="D3">
-            <v>0.91</v>
-          </cell>
-          <cell r="E3">
-            <v>0.88</v>
-          </cell>
-          <cell r="F3">
-            <v>0.86</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>7:3-0.6</v>
-          </cell>
-          <cell r="B4">
-            <v>0.89</v>
-          </cell>
-          <cell r="C4">
-            <v>0.95</v>
-          </cell>
-          <cell r="D4">
-            <v>0.92</v>
-          </cell>
-          <cell r="E4">
-            <v>0.88</v>
-          </cell>
-          <cell r="F4">
-            <v>0.88</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>8:2-0.55</v>
-          </cell>
-          <cell r="B5">
-            <v>0.92</v>
-          </cell>
-          <cell r="C5">
-            <v>0.91</v>
-          </cell>
-          <cell r="D5">
-            <v>0.92</v>
-          </cell>
-          <cell r="E5">
-            <v>0.9</v>
-          </cell>
-          <cell r="F5">
-            <v>0.86</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>8:2-0.6</v>
-          </cell>
-          <cell r="B6">
-            <v>0.88</v>
-          </cell>
-          <cell r="C6">
-            <v>0.96</v>
-          </cell>
-          <cell r="D6">
-            <v>0.92</v>
-          </cell>
-          <cell r="E6">
-            <v>0.87</v>
-          </cell>
-          <cell r="F6">
-            <v>0.88</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>9:1-0.55</v>
-          </cell>
-          <cell r="B7">
-            <v>0.91</v>
-          </cell>
-          <cell r="C7">
-            <v>0.93</v>
-          </cell>
-          <cell r="D7">
-            <v>0.92</v>
-          </cell>
-          <cell r="E7">
-            <v>0.9</v>
-          </cell>
-          <cell r="F7">
-            <v>0.88</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>2.0000000000000018E-2</v>
-          </cell>
-          <cell r="C28">
-            <v>2.0000000000000018E-2</v>
-          </cell>
-          <cell r="D28">
-            <v>2.0000000000000018E-2</v>
-          </cell>
-          <cell r="E28">
-            <v>2.0000000000000018E-2</v>
-          </cell>
-          <cell r="F28">
-            <v>6.0000000000000053E-2</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>4.0000000000000036E-2</v>
-          </cell>
-          <cell r="C29">
-            <v>9.9999999999998979E-3</v>
-          </cell>
-          <cell r="D29">
-            <v>2.0000000000000018E-2</v>
-          </cell>
-          <cell r="E29">
-            <v>5.0000000000000044E-2</v>
-          </cell>
-          <cell r="F29">
-            <v>5.9999999999999942E-2</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>2.0000000000000018E-2</v>
-          </cell>
-          <cell r="C30">
-            <v>2.0000000000000018E-2</v>
-          </cell>
-          <cell r="D30">
-            <v>1.9999999999999907E-2</v>
-          </cell>
-          <cell r="E30">
-            <v>2.0000000000000018E-2</v>
-          </cell>
-          <cell r="F30">
-            <v>5.0000000000000044E-2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>4.0000000000000036E-2</v>
-          </cell>
-          <cell r="C31">
-            <v>1.9999999999999907E-2</v>
-          </cell>
-          <cell r="D31">
-            <v>3.0000000000000027E-2</v>
-          </cell>
-          <cell r="E31">
-            <v>5.0000000000000044E-2</v>
-          </cell>
-          <cell r="F31">
-            <v>7.999999999999996E-2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>1.9999999999999907E-2</v>
-          </cell>
-          <cell r="C32">
-            <v>2.9999999999999916E-2</v>
-          </cell>
-          <cell r="D32">
-            <v>1.0000000000000009E-2</v>
-          </cell>
-          <cell r="E32">
-            <v>2.0000000000000018E-2</v>
-          </cell>
-          <cell r="F32">
-            <v>5.0000000000000044E-2</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>3.0000000000000027E-2</v>
-          </cell>
-          <cell r="C33">
-            <v>4.0000000000000036E-2</v>
-          </cell>
-          <cell r="D33">
-            <v>3.0000000000000027E-2</v>
-          </cell>
-          <cell r="E33">
-            <v>5.0000000000000044E-2</v>
-          </cell>
-          <cell r="F33">
-            <v>9.9999999999999978E-2</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>2.0000000000000018E-2</v>
-          </cell>
-          <cell r="C34">
-            <v>1.0000000000000009E-2</v>
-          </cell>
-          <cell r="D34">
-            <v>1.0000000000000009E-2</v>
-          </cell>
-          <cell r="E34">
-            <v>2.0000000000000018E-2</v>
-          </cell>
-          <cell r="F34">
-            <v>4.0000000000000036E-2</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>3.0000000000000027E-2</v>
-          </cell>
-          <cell r="C35">
-            <v>2.0000000000000018E-2</v>
-          </cell>
-          <cell r="D35">
-            <v>2.0000000000000018E-2</v>
-          </cell>
-          <cell r="E35">
-            <v>4.0000000000000036E-2</v>
-          </cell>
-          <cell r="F35">
-            <v>7.999999999999996E-2</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>2.0000000000000018E-2</v>
-          </cell>
-          <cell r="C36">
-            <v>9.9999999999998979E-3</v>
-          </cell>
-          <cell r="D36">
-            <v>1.0000000000000009E-2</v>
-          </cell>
-          <cell r="E36">
-            <v>2.0000000000000018E-2</v>
-          </cell>
-          <cell r="F36">
-            <v>4.0000000000000036E-2</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>3.0000000000000027E-2</v>
-          </cell>
-          <cell r="C37">
-            <v>3.0000000000000027E-2</v>
-          </cell>
-          <cell r="D37">
-            <v>3.0000000000000027E-2</v>
-          </cell>
-          <cell r="E37">
-            <v>3.0000000000000027E-2</v>
-          </cell>
-          <cell r="F37">
-            <v>6.0000000000000053E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8729,7 +10017,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -8761,16 +10049,16 @@
         <v>0.4</v>
       </c>
       <c r="B3">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="C3">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -8784,16 +10072,16 @@
         <v>0.92</v>
       </c>
       <c r="C4">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="D4">
-        <v>0.66</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E4">
-        <v>0.51</v>
+        <v>0.41</v>
       </c>
       <c r="F4">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8801,39 +10089,39 @@
         <v>0.5</v>
       </c>
       <c r="B5">
+        <v>0.92</v>
+      </c>
+      <c r="C5">
+        <v>0.79</v>
+      </c>
+      <c r="D5">
+        <v>0.85</v>
+      </c>
+      <c r="E5">
+        <v>0.78</v>
+      </c>
+      <c r="F5">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="C6" s="1">
         <v>0.93</v>
       </c>
-      <c r="C5">
-        <v>0.83</v>
-      </c>
-      <c r="D5">
-        <v>0.88</v>
-      </c>
-      <c r="E5">
-        <v>0.82</v>
-      </c>
-      <c r="F5">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="B6">
-        <v>0.91</v>
-      </c>
-      <c r="C6">
-        <v>0.94</v>
-      </c>
-      <c r="D6">
-        <v>0.93</v>
-      </c>
-      <c r="E6">
-        <v>0.91</v>
-      </c>
-      <c r="F6">
+      <c r="D6" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="E6" s="1">
         <v>0.9</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.89</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8867,10 +10155,10 @@
         <v>0.99</v>
       </c>
       <c r="D8">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="E8">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="F8">
         <v>0.55000000000000004</v>
@@ -8881,19 +10169,19 @@
         <v>0.7</v>
       </c>
       <c r="B9">
-        <v>0.59</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="E9">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="F9">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8910,7 +10198,7 @@
         <v>0.69</v>
       </c>
       <c r="E10">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="F10">
         <v>0.22</v>
@@ -8929,16 +10217,16 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="D12">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
       <c r="E12">
-        <v>0.14000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="F12">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8946,19 +10234,19 @@
         <v>0.45</v>
       </c>
       <c r="B13">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="C13">
-        <v>0.63</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D13">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="E13">
-        <v>0.62</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F13">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8966,19 +10254,19 @@
         <v>0.5</v>
       </c>
       <c r="B14">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="C14">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="D14">
         <v>0.91</v>
       </c>
       <c r="E14">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F14">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8989,7 +10277,7 @@
         <v>0.95</v>
       </c>
       <c r="C15">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="D15">
         <v>0.95</v>
@@ -8998,7 +10286,7 @@
         <v>0.94</v>
       </c>
       <c r="F15">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -9006,19 +10294,19 @@
         <v>0.6</v>
       </c>
       <c r="B16">
+        <v>0.87</v>
+      </c>
+      <c r="C16">
+        <v>0.99</v>
+      </c>
+      <c r="D16">
+        <v>0.92</v>
+      </c>
+      <c r="E16">
+        <v>0.85</v>
+      </c>
+      <c r="F16">
         <v>0.89</v>
-      </c>
-      <c r="C16">
-        <v>0.98</v>
-      </c>
-      <c r="D16">
-        <v>0.93</v>
-      </c>
-      <c r="E16">
-        <v>0.87</v>
-      </c>
-      <c r="F16">
-        <v>0.9</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -9029,16 +10317,16 @@
         <v>0.73</v>
       </c>
       <c r="C17">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>0.84</v>
       </c>
       <c r="E17">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="F17">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9046,7 +10334,7 @@
         <v>0.7</v>
       </c>
       <c r="B18">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -9055,7 +10343,7 @@
         <v>0.77</v>
       </c>
       <c r="E18">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="F18">
         <v>0.5</v>
@@ -9066,7 +10354,7 @@
         <v>0.75</v>
       </c>
       <c r="B19">
-        <v>0.56999999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -9075,10 +10363,10 @@
         <v>0.72</v>
       </c>
       <c r="E19">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="F19">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -9091,7 +10379,7 @@
         <v>0.4</v>
       </c>
       <c r="B21">
-        <v>0.44</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -9111,19 +10399,19 @@
         <v>0.45</v>
       </c>
       <c r="B22">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="C22">
-        <v>0.39</v>
+        <v>0.21</v>
       </c>
       <c r="D22">
-        <v>0.55000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="E22">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="F22">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -9131,19 +10419,19 @@
         <v>0.5</v>
       </c>
       <c r="B23">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="C23">
-        <v>0.77</v>
+        <v>0.68</v>
       </c>
       <c r="D23">
-        <v>0.84</v>
+        <v>0.78</v>
       </c>
       <c r="E23">
-        <v>0.76</v>
+        <v>0.66</v>
       </c>
       <c r="F23">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -9151,19 +10439,19 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="B24">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="C24">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="D24">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="E24">
         <v>0.86</v>
       </c>
       <c r="F24">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -9171,19 +10459,19 @@
         <v>0.6</v>
       </c>
       <c r="B25">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="C25">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="D25">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="E25">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="F25">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -9197,13 +10485,13 @@
         <v>0.98</v>
       </c>
       <c r="D26">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="E26">
-        <v>0.55000000000000004</v>
+        <v>0.53</v>
       </c>
       <c r="F26">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -9220,10 +10508,10 @@
         <v>0.71</v>
       </c>
       <c r="E27">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="F27">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -9231,7 +10519,7 @@
         <v>0.75</v>
       </c>
       <c r="B28">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -9240,7 +10528,7 @@
         <v>0.67</v>
       </c>
       <c r="E28">
-        <v>0.28999999999999998</v>
+        <v>0.27</v>
       </c>
       <c r="F28">
         <v>0.11</v>
@@ -9256,19 +10544,19 @@
         <v>0.4</v>
       </c>
       <c r="B30">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="C30">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -9279,16 +10567,16 @@
         <v>0.02</v>
       </c>
       <c r="C31">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D31">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E31">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F31">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -9296,7 +10584,7 @@
         <v>0.5</v>
       </c>
       <c r="B32">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C32">
         <v>0.03</v>
@@ -9308,7 +10596,7 @@
         <v>0.03</v>
       </c>
       <c r="F32">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -9325,10 +10613,10 @@
         <v>0.01</v>
       </c>
       <c r="E33">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F33">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -9365,10 +10653,10 @@
         <v>0.01</v>
       </c>
       <c r="E35">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F35">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -9413,7 +10701,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -9429,7 +10717,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+      <selection activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -9461,19 +10749,19 @@
         <v>0.4</v>
       </c>
       <c r="B3">
-        <v>0.94</v>
+        <v>0.98</v>
       </c>
       <c r="C3">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="D3">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
       <c r="E3">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="F3">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9484,16 +10772,16 @@
         <v>0.92</v>
       </c>
       <c r="C4">
-        <v>0.59</v>
+        <v>0.51</v>
       </c>
       <c r="D4">
-        <v>0.72</v>
+        <v>0.66</v>
       </c>
       <c r="E4">
-        <v>0.57999999999999996</v>
+        <v>0.51</v>
       </c>
       <c r="F4">
-        <v>0.39</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9504,44 +10792,44 @@
         <v>0.93</v>
       </c>
       <c r="C5">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="D5">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="E5">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="F5">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>0.91</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0.94</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.93</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>0.91</v>
       </c>
-      <c r="F6">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>0.6</v>
       </c>
       <c r="B7" s="2">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="C7" s="2">
         <v>0.97</v>
@@ -9550,10 +10838,10 @@
         <v>0.89</v>
       </c>
       <c r="E7" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="F7" s="2">
         <v>0.8</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.81</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -9561,19 +10849,19 @@
         <v>0.65</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="C8">
         <v>0.99</v>
       </c>
       <c r="D8">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="E8">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="F8">
-        <v>0.59</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9581,19 +10869,19 @@
         <v>0.7</v>
       </c>
       <c r="B9">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="E9">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="F9">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9601,19 +10889,19 @@
         <v>0.75</v>
       </c>
       <c r="B10">
-        <v>0.55000000000000004</v>
+        <v>0.53</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.71</v>
+        <v>0.69</v>
       </c>
       <c r="E10">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="F10">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9629,16 +10917,16 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0.32</v>
+        <v>0.15</v>
       </c>
       <c r="D12">
-        <v>0.49</v>
+        <v>0.25</v>
       </c>
       <c r="E12">
-        <v>0.32</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F12">
-        <v>0.18</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9646,19 +10934,19 @@
         <v>0.45</v>
       </c>
       <c r="B13">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="C13">
-        <v>0.7</v>
+        <v>0.63</v>
       </c>
       <c r="D13">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="E13">
-        <v>0.69</v>
+        <v>0.62</v>
       </c>
       <c r="F13">
-        <v>0.59</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9666,19 +10954,19 @@
         <v>0.5</v>
       </c>
       <c r="B14">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="C14">
+        <v>0.89</v>
+      </c>
+      <c r="D14">
         <v>0.91</v>
       </c>
-      <c r="D14">
-        <v>0.93</v>
-      </c>
       <c r="E14">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="F14">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9689,7 +10977,7 @@
         <v>0.95</v>
       </c>
       <c r="C15">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="D15">
         <v>0.95</v>
@@ -9706,16 +10994,16 @@
         <v>0.6</v>
       </c>
       <c r="B16">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="C16">
         <v>0.98</v>
       </c>
       <c r="D16">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="E16">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="F16">
         <v>0.9</v>
@@ -9726,19 +11014,19 @@
         <v>0.65</v>
       </c>
       <c r="B17">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="C17">
         <v>0.99</v>
       </c>
       <c r="D17">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="E17">
+        <v>0.67</v>
+      </c>
+      <c r="F17">
         <v>0.68</v>
-      </c>
-      <c r="F17">
-        <v>0.71</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9746,19 +11034,19 @@
         <v>0.7</v>
       </c>
       <c r="B18">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="E18">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="F18">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9772,13 +11060,13 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="E19">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="F19">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -9791,7 +11079,7 @@
         <v>0.4</v>
       </c>
       <c r="B21">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -9814,16 +11102,16 @@
         <v>0.88</v>
       </c>
       <c r="C22">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
       <c r="D22">
-        <v>0.59</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E22">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="F22">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -9831,19 +11119,19 @@
         <v>0.5</v>
       </c>
       <c r="B23">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="C23">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="D23">
         <v>0.84</v>
       </c>
       <c r="E23">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="F23">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -9871,7 +11159,7 @@
         <v>0.6</v>
       </c>
       <c r="B25">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="C25">
         <v>0.96</v>
@@ -9880,10 +11168,10 @@
         <v>0.86</v>
       </c>
       <c r="E25">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="F25">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -9897,13 +11185,13 @@
         <v>0.98</v>
       </c>
       <c r="D26">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="E26">
-        <v>0.52</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F26">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -9920,10 +11208,10 @@
         <v>0.71</v>
       </c>
       <c r="E27">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="F27">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -9940,10 +11228,10 @@
         <v>0.67</v>
       </c>
       <c r="E28">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F28">
-        <v>0.14000000000000001</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -9956,19 +11244,19 @@
         <v>0.4</v>
       </c>
       <c r="B30">
+        <v>0.06</v>
+      </c>
+      <c r="C30">
+        <v>0.04</v>
+      </c>
+      <c r="D30">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C30">
-        <v>0.09</v>
-      </c>
-      <c r="D30">
-        <v>0.13</v>
-      </c>
       <c r="E30">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="F30">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -9979,13 +11267,13 @@
         <v>0.02</v>
       </c>
       <c r="C31">
+        <v>0.06</v>
+      </c>
+      <c r="D31">
         <v>0.05</v>
       </c>
-      <c r="D31">
-        <v>0.04</v>
-      </c>
       <c r="E31">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F31">
         <v>0.08</v>
@@ -9996,10 +11284,10 @@
         <v>0.5</v>
       </c>
       <c r="B32">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="C32">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D32">
         <v>0.02</v>
@@ -10025,10 +11313,10 @@
         <v>0.01</v>
       </c>
       <c r="E33">
+        <v>0.01</v>
+      </c>
+      <c r="F33">
         <v>0.02</v>
-      </c>
-      <c r="F33">
-        <v>0.03</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -10045,10 +11333,10 @@
         <v>0.01</v>
       </c>
       <c r="E34">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F34">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -10062,13 +11350,13 @@
         <v>0</v>
       </c>
       <c r="D35">
+        <v>0.01</v>
+      </c>
+      <c r="E35">
         <v>0.02</v>
       </c>
-      <c r="E35">
-        <v>0.03</v>
-      </c>
       <c r="F35">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -10085,10 +11373,10 @@
         <v>0.01</v>
       </c>
       <c r="E36">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F36">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -10108,18 +11396,19 @@
         <v>0.02</v>
       </c>
       <c r="F37">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10128,7 +11417,707 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+      <selection activeCell="A6" sqref="A6:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.4</v>
+      </c>
+      <c r="B3">
+        <v>0.94</v>
+      </c>
+      <c r="C3">
+        <v>0.12</v>
+      </c>
+      <c r="D3">
+        <v>0.21</v>
+      </c>
+      <c r="E3">
+        <v>0.12</v>
+      </c>
+      <c r="F3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.45</v>
+      </c>
+      <c r="B4">
+        <v>0.92</v>
+      </c>
+      <c r="C4">
+        <v>0.59</v>
+      </c>
+      <c r="D4">
+        <v>0.72</v>
+      </c>
+      <c r="E4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F4">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.5</v>
+      </c>
+      <c r="B5">
+        <v>0.93</v>
+      </c>
+      <c r="C5">
+        <v>0.85</v>
+      </c>
+      <c r="D5">
+        <v>0.89</v>
+      </c>
+      <c r="E5">
+        <v>0.84</v>
+      </c>
+      <c r="F5">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.65</v>
+      </c>
+      <c r="B8">
+        <v>0.7</v>
+      </c>
+      <c r="C8">
+        <v>0.99</v>
+      </c>
+      <c r="D8">
+        <v>0.82</v>
+      </c>
+      <c r="E8">
+        <v>0.63</v>
+      </c>
+      <c r="F8">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.7</v>
+      </c>
+      <c r="B9">
+        <v>0.6</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.75</v>
+      </c>
+      <c r="E9">
+        <v>0.47</v>
+      </c>
+      <c r="F9">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.75</v>
+      </c>
+      <c r="B10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.71</v>
+      </c>
+      <c r="E10">
+        <v>0.35</v>
+      </c>
+      <c r="F10">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.4</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0.32</v>
+      </c>
+      <c r="D12">
+        <v>0.49</v>
+      </c>
+      <c r="E12">
+        <v>0.32</v>
+      </c>
+      <c r="F12">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.45</v>
+      </c>
+      <c r="B13">
+        <v>0.97</v>
+      </c>
+      <c r="C13">
+        <v>0.7</v>
+      </c>
+      <c r="D13">
+        <v>0.79</v>
+      </c>
+      <c r="E13">
+        <v>0.69</v>
+      </c>
+      <c r="F13">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.5</v>
+      </c>
+      <c r="B14">
+        <v>0.97</v>
+      </c>
+      <c r="C14">
+        <v>0.91</v>
+      </c>
+      <c r="D14">
+        <v>0.93</v>
+      </c>
+      <c r="E14">
+        <v>0.91</v>
+      </c>
+      <c r="F14">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B15">
+        <v>0.95</v>
+      </c>
+      <c r="C15">
+        <v>0.96</v>
+      </c>
+      <c r="D15">
+        <v>0.95</v>
+      </c>
+      <c r="E15">
+        <v>0.94</v>
+      </c>
+      <c r="F15">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.6</v>
+      </c>
+      <c r="B16">
+        <v>0.87</v>
+      </c>
+      <c r="C16">
+        <v>0.98</v>
+      </c>
+      <c r="D16">
+        <v>0.92</v>
+      </c>
+      <c r="E16">
+        <v>0.85</v>
+      </c>
+      <c r="F16">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.65</v>
+      </c>
+      <c r="B17">
+        <v>0.74</v>
+      </c>
+      <c r="C17">
+        <v>0.99</v>
+      </c>
+      <c r="D17">
+        <v>0.85</v>
+      </c>
+      <c r="E17">
+        <v>0.68</v>
+      </c>
+      <c r="F17">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.7</v>
+      </c>
+      <c r="B18">
+        <v>0.64</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.78</v>
+      </c>
+      <c r="E18">
+        <v>0.53</v>
+      </c>
+      <c r="F18">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.75</v>
+      </c>
+      <c r="B19">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0.73</v>
+      </c>
+      <c r="E19">
+        <v>0.4</v>
+      </c>
+      <c r="F19">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.4</v>
+      </c>
+      <c r="B21">
+        <v>0.41</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.45</v>
+      </c>
+      <c r="B22">
+        <v>0.88</v>
+      </c>
+      <c r="C22">
+        <v>0.43</v>
+      </c>
+      <c r="D22">
+        <v>0.59</v>
+      </c>
+      <c r="E22">
+        <v>0.42</v>
+      </c>
+      <c r="F22">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.5</v>
+      </c>
+      <c r="B23">
+        <v>0.88</v>
+      </c>
+      <c r="C23">
+        <v>0.78</v>
+      </c>
+      <c r="D23">
+        <v>0.84</v>
+      </c>
+      <c r="E23">
+        <v>0.77</v>
+      </c>
+      <c r="F23">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B24">
+        <v>0.88</v>
+      </c>
+      <c r="C24">
+        <v>0.91</v>
+      </c>
+      <c r="D24">
+        <v>0.9</v>
+      </c>
+      <c r="E24">
+        <v>0.86</v>
+      </c>
+      <c r="F24">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.6</v>
+      </c>
+      <c r="B25">
+        <v>0.77</v>
+      </c>
+      <c r="C25">
+        <v>0.96</v>
+      </c>
+      <c r="D25">
+        <v>0.86</v>
+      </c>
+      <c r="E25">
+        <v>0.72</v>
+      </c>
+      <c r="F25">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.65</v>
+      </c>
+      <c r="B26">
+        <v>0.64</v>
+      </c>
+      <c r="C26">
+        <v>0.98</v>
+      </c>
+      <c r="D26">
+        <v>0.77</v>
+      </c>
+      <c r="E26">
+        <v>0.52</v>
+      </c>
+      <c r="F26">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.7</v>
+      </c>
+      <c r="B27">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C27">
+        <v>0.99</v>
+      </c>
+      <c r="D27">
+        <v>0.71</v>
+      </c>
+      <c r="E27">
+        <v>0.39</v>
+      </c>
+      <c r="F27">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.75</v>
+      </c>
+      <c r="B28">
+        <v>0.51</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0.67</v>
+      </c>
+      <c r="E28">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F28">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.4</v>
+      </c>
+      <c r="B30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C30">
+        <v>0.09</v>
+      </c>
+      <c r="D30">
+        <v>0.13</v>
+      </c>
+      <c r="E30">
+        <v>0.09</v>
+      </c>
+      <c r="F30">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.45</v>
+      </c>
+      <c r="B31">
+        <v>0.02</v>
+      </c>
+      <c r="C31">
+        <v>0.05</v>
+      </c>
+      <c r="D31">
+        <v>0.04</v>
+      </c>
+      <c r="E31">
+        <v>0.05</v>
+      </c>
+      <c r="F31">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.5</v>
+      </c>
+      <c r="B32">
+        <v>0.02</v>
+      </c>
+      <c r="C32">
+        <v>0.02</v>
+      </c>
+      <c r="D32">
+        <v>0.02</v>
+      </c>
+      <c r="E32">
+        <v>0.03</v>
+      </c>
+      <c r="F32">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B33">
+        <v>0.01</v>
+      </c>
+      <c r="C33">
+        <v>0.01</v>
+      </c>
+      <c r="D33">
+        <v>0.01</v>
+      </c>
+      <c r="E33">
+        <v>0.02</v>
+      </c>
+      <c r="F33">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.6</v>
+      </c>
+      <c r="B34">
+        <v>0.02</v>
+      </c>
+      <c r="C34">
+        <v>0.01</v>
+      </c>
+      <c r="D34">
+        <v>0.01</v>
+      </c>
+      <c r="E34">
+        <v>0.03</v>
+      </c>
+      <c r="F34">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.65</v>
+      </c>
+      <c r="B35">
+        <v>0.02</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0.02</v>
+      </c>
+      <c r="E35">
+        <v>0.03</v>
+      </c>
+      <c r="F35">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.7</v>
+      </c>
+      <c r="B36">
+        <v>0.02</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0.01</v>
+      </c>
+      <c r="E36">
+        <v>0.03</v>
+      </c>
+      <c r="F36">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.75</v>
+      </c>
+      <c r="B37">
+        <v>0.01</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0.01</v>
+      </c>
+      <c r="E37">
+        <v>0.02</v>
+      </c>
+      <c r="F37">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -10219,22 +12208,22 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>0.91</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0.94</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.92</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>0.9</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>0.89</v>
       </c>
     </row>
@@ -10825,12 +12814,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="B1:F1"/>
+      <selection activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -10921,22 +12910,22 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>0.9</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>0.93</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>0.92</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>0.89</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>0.88</v>
       </c>
     </row>
@@ -11527,7 +13516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
@@ -11935,7 +13924,7 @@
         <v>3.9999999999999925E-2</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="B26:F26" si="1">C9-C4</f>
+        <f t="shared" ref="C26:F26" si="1">C9-C4</f>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="D26">
